--- a/biology/Botanique/Pouilly-fuissé/Pouilly-fuissé.xlsx
+++ b/biology/Botanique/Pouilly-fuissé/Pouilly-fuissé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pouilly-fuiss%C3%A9</t>
+          <t>Pouilly-fuissé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le pouilly-fuissé[4] est un vin blanc d'appellation d'origine contrôlée produit sur les communes de Chaintré, Fuissé, Solutré-Pouilly et Vergisson en Saône-et-Loire.
+Le pouilly-fuissé est un vin blanc d'appellation d'origine contrôlée produit sur les communes de Chaintré, Fuissé, Solutré-Pouilly et Vergisson en Saône-et-Loire.
 L'aire de production se situe au sud de la Bourgogne ; elle fait partie du vignoble du Mâconnais, à une dizaine de kilomètres à l'ouest de Mâcon.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pouilly-fuiss%C3%A9</t>
+          <t>Pouilly-fuissé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un jugement du tribunal de Mâcon en date du 7 décembre 1922 attestait la nécessité de protéger le caractère remarquable et singulier du vin de Pouilly-Fuissé, lui permettant ainsi de devenir l'une des appellations « juridiques » de France.
 Le 13 janvier 1929 était fondée l'« union des producteurs des grands vins blancs de Pouilly-Fuissé », qui conduisit le dossier de reconnaissance auprès de l'institut national des appellations d'origine, ayant abouti au décret du 11 septembre 1936.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pouilly-fuiss%C3%A9</t>
+          <t>Pouilly-fuissé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,13 +562,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orographie
-Géologie
-Les terroirs du pouilly-fuissé sont de constitution majoritairement argilo-calcaire (Jurassique de l'ère secondaire). Vieux de 150 à 180 millions d'années, ils couvrent les périodes allant du Lias pour les plus vieux à l'Oxfordien pour les plus jeunes.
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les terroirs du pouilly-fuissé sont de constitution majoritairement argilo-calcaire (Jurassique de l'ère secondaire). Vieux de 150 à 180 millions d'années, ils couvrent les périodes allant du Lias pour les plus vieux à l'Oxfordien pour les plus jeunes.
 Quelques zones laissent apparaître des sols primaires cristallins, schisteux et gréseux. L'altitude varie de 225 à plus de 350 mètres.
-Climat
-Climat tempéré à légère tendance continentale :
-Source : Météo-France/Infoclimat : Mâcon (1961-1990)[5]
 </t>
         </is>
       </c>
@@ -565,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pouilly-fuiss%C3%A9</t>
+          <t>Pouilly-fuissé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,25 +595,173 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Climat tempéré à légère tendance continentale :
+Source : Météo-France/Infoclimat : Mâcon (1961-1990)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pouilly-fuissé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pouilly-fuiss%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-Le vignoble couvre une superficie de 750 hectares environ, pour une production annuelle moyenne de 44 000 hectolitres.
-Encépagement
-Le chardonnay est l'unique cépage du vignoble de Pouilly-Fuissé.
-Principaux climats
-Un « climat » est une dénomination bourguignonne du lieu-dit ; ces noms traditionnels désignent une particularité d'ordre topographique ou historique :
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble couvre une superficie de 750 hectares environ, pour une production annuelle moyenne de 44 000 hectolitres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pouilly-fuissé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pouilly-fuiss%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chardonnay est l'unique cépage du vignoble de Pouilly-Fuissé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pouilly-fuissé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pouilly-fuiss%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Principaux climats</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un « climat » est une dénomination bourguignonne du lieu-dit ; ces noms traditionnels désignent une particularité d'ordre topographique ou historique :
 Chaintré : Les Chevrières, Le Clos de Monsieur Noly, Le Clos Reyssier, les Plantes Vieilles, en Cenan ;
 Fuissé : Les Vignes Blanches, Vers Cras, Le Clos, Les Brûlés, Les Perrières, Les Combettes ;
 Solutré-Pouilly : En Servy, La Frérie, Aux Chailloux, Aux Morlays, Vers Cras, Au Clos ;
 Vergisson : Les Crays, La Maréchaude, En Carmentrant, En Bulland, Aux Vignes Dessus.
 Les expressions des terroirs y sont multiples : le terrain argilo-calcaire, nuancé d'une parcelle à l'autre de marnes argileuses ou de sols pierreux, donne naissance à des vins riches et variés à la typicité bien affirmée.
-Une partie de ces climats bénéficient désormais de la mention premier cru à partir de la récolte 2020[6], à la suite d'une demande faite auprès de l'INAO.
-Méthodes culturales et réglementaires
-La taille dite « taille à queue du Mâconnais » est caractéristique du Mâconnais, c'est une dérivation de la taille en Guyot. Cette taille en « arcure » permet de lutter contre le phénomène d'acrotonie, typique du cépage chardonnay ; elle permet aussi de préserver la vigne contre le gel de printemps.
+Une partie de ces climats bénéficient désormais de la mention premier cru à partir de la récolte 2020, à la suite d'une demande faite auprès de l'INAO.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pouilly-fuissé</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pouilly-fuiss%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Méthodes culturales et réglementaires</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille dite « taille à queue du Mâconnais » est caractéristique du Mâconnais, c'est une dérivation de la taille en Guyot. Cette taille en « arcure » permet de lutter contre le phénomène d'acrotonie, typique du cépage chardonnay ; elle permet aussi de préserver la vigne contre le gel de printemps.
 Le rendement maximum autorisé est de soixante hectolitres par hectare (60 hl/ha).
 </t>
         </is>
